--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2297279.770789857</v>
+        <v>2295392.189273456</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>628723.1244105231</v>
+        <v>705331.4474060372</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9997144.622418236</v>
+        <v>9997144.62241824</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>268.8176318421088</v>
+        <v>86.71885129490923</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>101.7806877295493</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>402.96767166987</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>115.6735528025773</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>52.10844059186277</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>206.3663739647398</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>52.44771726708363</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481161</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686299</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>6.908481403326247</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274145</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>59.77945773664992</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>51.93332336590285</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>44.36158500183369</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>221.5438283492471</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>75.49838637028844</v>
       </c>
       <c r="T19" t="n">
-        <v>42.73966146813952</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2138,13 +2138,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9700322506495</v>
+        <v>181.3807313307303</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>113.8398955709559</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>225.206479807409</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>93.42427375092038</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>51.81104197161768</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,13 +2767,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>19.67402846882754</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965541</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943743</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897918</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571503</v>
+        <v>55.21598883571498</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523583</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>4.107140650445</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604802</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898812</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692943</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3755,10 +3755,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463134</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1229.941371236149</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C2" t="n">
-        <v>1229.941371236149</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="D2" t="n">
-        <v>871.6756726293982</v>
+        <v>879.7184058617563</v>
       </c>
       <c r="E2" t="n">
-        <v>485.8874200311539</v>
+        <v>879.7184058617563</v>
       </c>
       <c r="F2" t="n">
-        <v>478.9419192819504</v>
+        <v>468.7325010721488</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4370,10 +4370,10 @@
         <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1229.941371236149</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326646</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>156.7517573047577</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>156.7517573047577</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629043</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1721.819089287443</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1257.755191400004</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1257.755191400004</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>871.9669388017599</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>460.9810340121523</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2525.27842902086</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2306.643761992922</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2052.881976631014</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1721.819089287443</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1721.819089287443</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1721.819089287443</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>1721.819089287443</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584.823100673953</v>
+        <v>1275.883734065349</v>
       </c>
       <c r="C8" t="n">
-        <v>1584.823100673953</v>
+        <v>1275.883734065349</v>
       </c>
       <c r="D8" t="n">
-        <v>1226.557402067202</v>
+        <v>917.6180354585988</v>
       </c>
       <c r="E8" t="n">
-        <v>840.7691494689579</v>
+        <v>531.8297828603545</v>
       </c>
       <c r="F8" t="n">
-        <v>429.7832446793504</v>
+        <v>120.8438780707469</v>
       </c>
       <c r="G8" t="n">
-        <v>415.8598406179413</v>
+        <v>106.9204740093379</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>106.9204740093379</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733133</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642691</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791254</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018224</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548717</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548717</v>
+        <v>2247.30824683495</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548717</v>
+        <v>1993.546461473042</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205147</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935033</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673953</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="Y8" t="n">
-        <v>1584.823100673953</v>
+        <v>1662.483574129471</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204944</v>
@@ -4887,19 +4887,19 @@
         <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572651</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414848</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435192</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050021</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761952</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482883</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359525</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355943</v>
+        <v>580.2158906240418</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036449</v>
+        <v>433.3259431261314</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036449</v>
+        <v>264.3261428644638</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036449</v>
+        <v>106.577770296994</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036449</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866327</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5063,28 +5063,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>436.8967109626369</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1819.161927111987</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N12" t="n">
-        <v>2623.573505376138</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028599</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028599</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028599</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028599</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247865</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383447</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952639</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583033</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028599</v>
+        <v>781.5895395384764</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028599</v>
+        <v>729.1316371486756</v>
       </c>
     </row>
     <row r="14">
@@ -5358,16 +5358,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>436.8967109626374</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1819.161927111988</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394.223678370532</v>
+        <v>289.939866862713</v>
       </c>
       <c r="C16" t="n">
-        <v>394.223678370532</v>
+        <v>289.939866862713</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581963</v>
+        <v>289.939866862713</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581963</v>
+        <v>142.0267732803199</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>142.0267732803199</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>142.0267732803199</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028587</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5455,31 +5455,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141521</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W16" t="n">
-        <v>796.6647223443019</v>
+        <v>920.3704617345002</v>
       </c>
       <c r="X16" t="n">
-        <v>796.6647223443019</v>
+        <v>692.3809108364828</v>
       </c>
       <c r="Y16" t="n">
-        <v>575.8721432007717</v>
+        <v>471.5883316929527</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,19 +5504,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5528,37 +5528,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,13 +5589,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
         <v>1122.004430061687</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394.525047410253</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C19" t="n">
-        <v>394.525047410253</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>394.525047410253</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>394.525047410253</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,7 +5677,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1422.655274224278</v>
       </c>
       <c r="T19" t="n">
-        <v>1455.74489533756</v>
+        <v>1198.869859013784</v>
       </c>
       <c r="U19" t="n">
-        <v>1166.616256551118</v>
+        <v>1198.869859013784</v>
       </c>
       <c r="V19" t="n">
-        <v>911.9317683452311</v>
+        <v>944.1853708078967</v>
       </c>
       <c r="W19" t="n">
-        <v>622.5145983082706</v>
+        <v>654.7682007709361</v>
       </c>
       <c r="X19" t="n">
-        <v>394.525047410253</v>
+        <v>426.7786498729188</v>
       </c>
       <c r="Y19" t="n">
-        <v>394.525047410253</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,19 +5774,19 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
@@ -5826,19 +5826,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581963</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581963</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581963</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581963</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1016.198248099061</v>
+        <v>980.842891979203</v>
       </c>
       <c r="V22" t="n">
-        <v>761.5137598931742</v>
+        <v>726.1584037733162</v>
       </c>
       <c r="W22" t="n">
-        <v>472.0965898562137</v>
+        <v>436.7412337363556</v>
       </c>
       <c r="X22" t="n">
-        <v>244.1070389581963</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="Y22" t="n">
-        <v>244.1070389581963</v>
+        <v>208.7516828383383</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6063,19 +6063,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581962</v>
+        <v>510.2366179610307</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>982.3063390367045</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W25" t="n">
-        <v>692.8891689997438</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X25" t="n">
-        <v>464.8996181017263</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581962</v>
+        <v>510.2366179610307</v>
       </c>
     </row>
     <row r="26">
@@ -6203,67 +6203,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578666</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022017</v>
+        <v>2234.893232091767</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>303.1196361220963</v>
+        <v>505.7582697485846</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383384</v>
+        <v>505.7582697485846</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="F28" t="n">
         <v>208.7516828383384</v>
@@ -6379,19 +6379,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1446.581884727986</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1246.661874643538</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1022.876459433044</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.210845262961</v>
+        <v>733.7478206466019</v>
       </c>
       <c r="V28" t="n">
-        <v>820.5263570570743</v>
+        <v>733.7478206466019</v>
       </c>
       <c r="W28" t="n">
-        <v>531.1091870201136</v>
+        <v>733.7478206466019</v>
       </c>
       <c r="X28" t="n">
-        <v>303.1196361220963</v>
+        <v>505.7582697485846</v>
       </c>
       <c r="Y28" t="n">
-        <v>303.1196361220963</v>
+        <v>505.7582697485846</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6458,16 +6458,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515098</v>
@@ -6476,7 +6476,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6485,22 +6485,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028589</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028589</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605665</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924717</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.420029503086</v>
+        <v>658.7225911205032</v>
       </c>
       <c r="C31" t="n">
-        <v>545.5472734739672</v>
+        <v>545.547273473967</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430021</v>
+        <v>451.191499343002</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430021</v>
+        <v>451.191499343002</v>
       </c>
       <c r="F31" t="n">
         <v>360.0624171264624</v>
@@ -6613,10 +6613,10 @@
         <v>247.6479607276537</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569678</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
@@ -6628,7 +6628,7 @@
         <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962049</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1791.966918252996</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1787.818291333355</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1554.450517828284</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1355.526894903768</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818921</v>
+        <v>1121.870590148178</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652454</v>
+        <v>949.6419045315316</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.420029503086</v>
+        <v>784.6101906693723</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,25 +6780,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605665</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924717</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108339</v>
+        <v>659.460239110834</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229681</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506735</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,22 +6871,22 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045215</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010325</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,46 +6920,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,19 +7011,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>436.8967109626376</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
         <v>2623.573505376138</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083204</v>
@@ -7090,10 +7090,10 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,25 +7157,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108323</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229664</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571611</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>674.4285624571611</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1442.796708849623</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>2247.208287113774</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7722,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222968</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506734</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083214</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504521</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384657</v>
@@ -7834,7 +7834,7 @@
         <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045215</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013773</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516213</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8781,10 +8781,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417969</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>370.862340184928</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8623401849281</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,7 +11151,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -23416,19 +23416,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>192.3581855871781</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>166.6513299861919</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>104.5522433657024</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,22 +23701,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>64.97916998734391</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>122.4224236133148</v>
       </c>
       <c r="T19" t="n">
-        <v>178.8078995902497</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>6.267320147927819</v>
+        <v>104.856621067847</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>53.4069255276719</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24415,19 +24415,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>26.93116351641896</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>73.82254734770743</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>58.1533104321751</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>92.36953600124335</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801223</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523579</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>162.2371637793873</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-7.693845688338093e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>840712.4784360743</v>
+        <v>840712.4784360742</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>840712.4784360742</v>
+        <v>840712.4784360743</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583911</v>
+      </c>
+      <c r="C2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583912</v>
-      </c>
-      <c r="C2" t="n">
-        <v>554203.1946583909</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="H2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="I2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="J2" t="n">
-        <v>527889.2306459069</v>
-      </c>
       <c r="K2" t="n">
-        <v>549209.8854161144</v>
+        <v>549209.8854161145</v>
       </c>
       <c r="L2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="M2" t="n">
+        <v>554203.1946583906</v>
+      </c>
+      <c r="N2" t="n">
         <v>554203.1946583912</v>
-      </c>
-      <c r="N2" t="n">
-        <v>554203.1946583911</v>
       </c>
       <c r="O2" t="n">
         <v>554203.1946583908</v>
       </c>
       <c r="P2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.333471679274226e-10</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.042646238523421e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086699</v>
+        <v>10342.90680086694</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284539</v>
+        <v>44162.60530284563</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758361</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758514</v>
+        <v>787.7936905758437</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758411</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758436</v>
+        <v>787.7936905758902</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758411</v>
+        <v>787.7936905758876</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477229</v>
+        <v>18952.41620477235</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189633</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23206.58093189639</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189636</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23206.58093189636</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189633</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189631</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.0780634095</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26488,28 +26488,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-257682.9018001819</v>
       </c>
       <c r="C6" t="n">
+        <v>332284.9774143629</v>
+      </c>
+      <c r="D6" t="n">
         <v>332284.9774143625</v>
       </c>
-      <c r="D6" t="n">
-        <v>332284.9774143621</v>
-      </c>
       <c r="E6" t="n">
-        <v>-90045.92547028151</v>
+        <v>-90143.38459625345</v>
       </c>
       <c r="F6" t="n">
-        <v>435114.1110066146</v>
+        <v>435016.6518806425</v>
       </c>
       <c r="G6" t="n">
-        <v>435114.1110066146</v>
+        <v>435016.6518806423</v>
       </c>
       <c r="H6" t="n">
-        <v>435114.1110066145</v>
+        <v>435016.6518806422</v>
       </c>
       <c r="I6" t="n">
-        <v>435114.1110066145</v>
+        <v>435016.6518806425</v>
       </c>
       <c r="J6" t="n">
-        <v>258690.8918140214</v>
+        <v>258593.4326880494</v>
       </c>
       <c r="K6" t="n">
-        <v>389466.6553782737</v>
+        <v>389448.1616403394</v>
       </c>
       <c r="L6" t="n">
-        <v>422938.6011056026</v>
+        <v>422938.6011056025</v>
       </c>
       <c r="M6" t="n">
-        <v>298480.4926726325</v>
+        <v>298480.4926726317</v>
       </c>
       <c r="N6" t="n">
-        <v>433281.5079064693</v>
+        <v>433281.5079064695</v>
       </c>
       <c r="O6" t="n">
-        <v>433281.5079064689</v>
+        <v>433281.5079064691</v>
       </c>
       <c r="P6" t="n">
-        <v>389118.9026036243</v>
+        <v>389118.9026036238</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.553307798154276e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,40 +26744,40 @@
         <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26814,7 +26814,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.553307798154276e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108374</v>
+        <v>12.92863350108367</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.553307798154276e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>144.9665381786862</v>
+        <v>327.0653187258857</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>44.6532749170199</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>10.81649835092503</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>58.74216000639419</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>96.50703242634958</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>117.5563987996173</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>99.48359897777756</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060683</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>128.057140389012</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853695</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31376,7 +31376,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034983</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727437</v>
@@ -31531,7 +31531,7 @@
         <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.647164540537</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338307</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633807</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647356</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141117</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188923</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396484</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649103</v>
@@ -31622,16 +31622,16 @@
         <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034987</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
         <v>0.05345429210619158</v>
@@ -31671,10 +31671,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078618</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492007</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175854</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383809</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678014</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315614</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>216.4869287318319</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>409.4103115654726</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,16 +32075,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>216.4869287318324</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>129.3623873097339</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813462</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,22 +32309,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.452637254088</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,22 +32546,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,22 +32783,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>141.3402618185954</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,34 +33257,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927169</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33658,7 +33658,7 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L35" t="n">
         <v>526.796267130444</v>
@@ -33734,10 +33734,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>216.4869287318327</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
@@ -33746,7 +33746,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>213.8677363986961</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33995,13 +33995,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>118.1634263445477</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -34232,13 +34232,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34472,10 +34472,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
         <v>297.2230414343421</v>
@@ -35179,7 +35179,7 @@
         <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492239</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770699</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>410.0055067279154</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338904</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873158</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>343.1107267700515</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>660.6763863977577</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>343.110726770052</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>452.9334171377155</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35814,13 +35814,13 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
         <v>39.22569997187476</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951466</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197785</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>228.7283062629097</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412249</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341606</v>
@@ -37005,10 +37005,10 @@
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043172</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629098</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
         <v>342.4417313086132</v>
@@ -37239,13 +37239,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>343.1107267700523</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
@@ -37394,7 +37394,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,10 +37628,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>561.8683986589164</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>369.4295011768328</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,10 +38102,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
